--- a/testdata/FCfiles/stg/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
   <si>
     <t>shipmentType</t>
   </si>
@@ -635,6 +635,18 @@
   </si>
   <si>
     <t>58542713</t>
+  </si>
+  <si>
+    <t>58542921</t>
+  </si>
+  <si>
+    <t>58542922</t>
+  </si>
+  <si>
+    <t>58542923</t>
+  </si>
+  <si>
+    <t>58542924</t>
   </si>
 </sst>
 </file>
@@ -671,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="246">
+  <fills count="254">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1898,8 +1910,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="244">
+  <borders count="252">
     <border>
       <left/>
       <right/>
@@ -2816,12 +2868,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2960,7 +3040,11 @@
     <xf applyBorder="true" applyFill="true" borderId="237" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="239" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="241" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="245" borderId="243" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="251" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3542,8 +3626,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="135" t="s">
-        <v>199</v>
+      <c r="R2" s="139" t="s">
+        <v>203</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -3605,8 +3689,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="136" t="s">
-        <v>200</v>
+      <c r="R3" s="140" t="s">
+        <v>204</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -3668,8 +3752,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="137" t="s">
-        <v>201</v>
+      <c r="R4" s="141" t="s">
+        <v>205</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -3731,8 +3815,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="138" t="s">
-        <v>202</v>
+      <c r="R5" s="142" t="s">
+        <v>206</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/testdata/FCfiles/stg/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
   <si>
     <t>shipmentType</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>58542924</t>
+  </si>
+  <si>
+    <t>58575693</t>
+  </si>
+  <si>
+    <t>58575695</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="254">
+  <fills count="258">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1950,8 +1956,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="252">
+  <borders count="256">
     <border>
       <left/>
       <right/>
@@ -2896,12 +2922,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3044,7 +3084,9 @@
     <xf applyBorder="true" applyFill="true" borderId="245" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="247" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="249" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="253" borderId="251" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="257" borderId="255" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3626,8 +3668,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="139" t="s">
-        <v>203</v>
+      <c r="R2" s="143" t="s">
+        <v>207</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -3752,8 +3794,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="141" t="s">
-        <v>205</v>
+      <c r="R4" s="144" t="s">
+        <v>208</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
